--- a/Web/UploadFile/工厂订单信息.xlsx
+++ b/Web/UploadFile/工厂订单信息.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>防伪卡号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,10 @@
   </si>
   <si>
     <t>加工厂保修期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,18 +490,19 @@
     <col min="7" max="7" width="13.875" customWidth="1"/>
     <col min="8" max="8" width="18.25" customWidth="1"/>
     <col min="9" max="9" width="20.75" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
-    <col min="14" max="14" width="15.5" customWidth="1"/>
-    <col min="15" max="15" width="17.75" customWidth="1"/>
-    <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="17" max="17" width="12.5" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="14.875" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="17.75" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1"/>
+    <col min="18" max="18" width="12.5" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -526,13 +531,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>11</v>
@@ -541,19 +546,22 @@
         <v>11</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -572,6 +580,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
